--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/58_Mersin_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/58_Mersin_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF51D3EE-D30E-473B-B55F-A9832A4C1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F17AF90-45C3-4DDD-8CA3-1D4B322FCFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="673" xr2:uid="{1435FF57-DE11-41D8-95F2-DF45F9B29633}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{7C02B0A0-65F8-4B73-9DEF-2F1BEF9C1AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{645F85CC-81C7-4C1C-9A5A-5089DF530202}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D739B312-6532-412D-967B-4B93E3FE6DCB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{30C700A2-FABC-4C8E-920F-F91E5A485539}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{86FF5055-5B5E-4B58-BF7A-6AE4AAF6E123}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9DB5E37E-0283-405A-A2C3-D84CE38A3041}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{7CC6F123-D1CB-4867-BBD2-74E4720896F2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0A05D5FB-C29C-4BFE-B6D1-FFDD3832EAB3}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9478D1E1-CE3E-4524-B58F-F258B7364BD3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{22F06920-2BD5-4E25-A7C0-3FCF479E88AF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{ECCD7782-D6C4-4A43-96F8-65730C6F41A6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9B1F45EB-EFD7-468D-8FFA-4F701E1D1EC0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{667BF388-36F4-4B9F-BC3F-F03B97974FD9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2027AF45-7538-4C46-A400-414DE9E21908}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A2743762-C42B-4466-AC5F-5B8B7646B07E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C041353C-A932-4C33-A02B-6589ADF0A3EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9FB38-A88A-4F80-95EC-D90E88DA2C5D}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2654,17 +2654,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D03AC540-9A1D-4D06-808E-ADD1E817FC9C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAD19D2E-7157-43DA-A36C-AC91EF541C10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA885333-1A25-472F-8C1B-D746D01B6216}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8AFA73F5-9B7B-4E02-8DE3-B7B459B69501}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D346F874-611E-4145-BF72-3A8D70639ABC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{838F1662-246F-408F-82AF-09B15C605B00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BF0EA53-B363-418E-BF68-1EDA6ACF4358}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA7B94DF-127C-4AF7-888A-B32DAF59ECDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2B3D966B-9BED-408E-A71A-CD99ACBF57FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{158D3225-8D97-45F0-8077-D8AB0B66EB4B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE358F52-AFCF-4503-8B19-F4841FE3AAC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92B593E8-2C53-478F-B385-400E7ED8B32B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBC5ED98-F101-4CBA-B65F-BC7C7FFBC9C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D3975100-EC29-4802-A721-241AA6203193}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{103B7D42-0C96-48E4-BDF3-6F7120DD91E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD86647B-7662-4FC8-9EE3-CE46C6B3C7E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53A97E3E-15F2-44E4-9FCD-045692CA5C25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{425CB54B-399B-413F-8371-068A94810AA3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B36A196D-330C-4F7B-AFBA-903B81CC0680}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0721410F-3CCD-4B0D-B30F-532BE388EE92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CF83720F-183B-43E1-B8A8-9833A7E19D7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1CCB282-D623-4FE5-841D-FD24C8C0DBE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2677,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4005B5DE-6777-4C37-B9E0-A6D827497508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AC0AC9-9185-47F2-B11C-76A3794EE207}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3967,17 +3967,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6FD813E-FC9B-42DB-951E-45436E00AD2E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1A272CA-08B2-4651-A535-35ED22F7F99A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C5BDC5B-8F78-422C-86BE-043066D97DD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6EB2A3E6-4241-4F55-8DA0-7BFA4293636F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7C80B33-3333-4E18-8C49-A4D51C792BD9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CCA3D59-1C3A-4AEF-99A2-7241F70424A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD7C5241-8CBA-4ADB-8852-C15D63ED5471}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6676B08F-F0C8-4867-9494-2EEF44A39ECE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F8250D57-E386-44A8-9CDE-6D8B334B0095}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CA73D08B-9C30-4273-AD25-1B70CA8EF26F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5943C904-C527-4249-A0A1-1EDCC23FD376}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{507EE9F0-7A85-4649-BD5D-BEDA536A63A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0B00D8E-0686-4F1F-A278-EA83EE9282CC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{519C107C-CB73-44ED-9126-9A269250B9D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA0EF496-1D1A-4782-B43F-BB2B87B31DB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C0461F2-FC7D-44BC-82B8-33837CA67EE9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE5CA918-F1BD-4983-B999-EE40FCD9A1AA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{893CB650-77BD-4EFB-967B-5FBCBED052D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9366C191-6044-45D6-A564-87B41535C835}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D296AD0D-9027-4A42-8F9A-4E0FBAF46320}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BBDC331C-0C37-4F2A-9588-5E2789ABB67D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0D8946B-7968-4606-B226-B1885E64B1E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3990,7 +3990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF89354C-E6F8-43AD-93A7-6A5FA90F6874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2D948A-5DBD-4661-AE28-D654753027CD}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5272,17 +5272,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FCF47FA-5ED4-448E-BA08-8E3DAB9D26C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32BACDA0-2C35-4648-88E7-55AE5FAB923D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B10D270-6689-45E5-8124-87FF6ED3364E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A589798-3676-4FA2-884C-181F4E011C85}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13D2EBF3-F188-45E7-A84F-AE4EDCC51C2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0412B2D-E7FA-4C0B-A9D7-67F6E19884C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{360053B5-BA32-48F6-9A64-4635077320F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27652045-DAD5-48AF-BF42-7977E2089CD2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{21A20747-D25B-4411-8174-BE5DEC43009E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{65B4E9C9-B94F-44EF-963B-51EF1E30963D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DD0C662-A03D-4F18-B372-BDBB890C221E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DDA5448-EF39-4A94-A147-CF7CE16C50AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB4EE931-1817-419F-8C89-6699BD817A83}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04AE1AFE-FDFC-4C69-B3D5-3D8F45038F62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FC430AF-C6CE-4C60-AB4F-B8575C910227}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE2B204E-D6CB-418E-9156-042143CD5669}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA787144-06F1-40E5-AB40-03A6A092AD2E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC847FFC-2957-4C9A-83B0-A7CC7360245C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7410E849-622A-4EEA-A7FC-F676253D953C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CF623D57-0505-4FFD-AA10-4E2F3A75EC76}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5933BB9A-8660-4BDA-B783-6AA01E29EB85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FED0D2BC-8ECA-49F0-9D63-6163B1930D3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5295,7 +5295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04718CE9-56D2-4F2B-9240-657A4847F11F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44922B56-FED3-4925-A701-7E29BF899193}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6573,17 +6573,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B7D2709-D560-4901-839D-5D4F210E7D2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72281E00-429C-46ED-9858-AA31883C5F94}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5783490-2153-4F44-B953-E8EC9E4FF62F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92B87B57-0E4B-40A3-A0BB-C58016936C2E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C23139A0-53EC-4860-B962-ACCFCCA1E258}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20CB0BA0-02F0-4162-AC49-16158AF26EBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAFF24DF-C220-4058-80A4-B7BBC3A45722}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8DBDAB0-B747-4528-B772-CA48708808A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{309EB9B4-14B4-495A-A79B-FEEF591362BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{060A42F4-A906-4B44-AF49-535922382D6C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7E6F499-2B32-4B57-B5D8-CE29270E136A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35EA9768-4B1F-47B1-9C8C-68C10835E6C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EA61E73-04CB-4639-9733-BA257708F6C4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C422C5CD-76EF-413E-93A4-AD8DDD6C85B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBB2813E-A69B-422E-B569-8C845C418A67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E530FBD-5109-4724-93C0-09ADF5CFE708}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B982F201-0A50-4C34-974E-908EE370A893}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC906604-1C58-44E0-8B14-35B490398C3F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D3D9E01-3258-4E19-8C5D-F86AEA60F908}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{31409D68-38FC-46FA-8F09-1391C04AD775}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{83537044-A0A2-446B-BD86-D5E5431BE6A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B901F8B0-1AA4-4AC6-95AF-7282F0DC8ADC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6596,7 +6596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786DA8F2-A21C-40F7-9636-D72019B4B9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F1BEA0-15C7-4A14-B3E2-FF744A4B3A88}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7899,17 +7899,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C841108-D39B-4CCA-87C3-98481820D70C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B40FA915-06E7-4407-80AE-7894089ADEE9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{499F670E-FC70-488F-B069-19C51C2D9C52}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A9D3D23-0DCD-4425-9F50-BD2874B1C929}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6F587EA-B54C-4467-88FB-D6991A85A733}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{800CD34E-950D-4E02-9E65-1C50CEEAA599}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9C27947-E2AB-482B-99BF-EECF988D7899}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2067A27D-0A64-4628-832A-226E6CBB4F1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{298F572B-7B01-4B51-9419-D3E0632F0F9E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{603D0C49-F3D2-4628-9FBD-7C7358E42FF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E24E9B8-E008-444F-9DE6-339C9A223331}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EF31BF0-1EAF-4E31-BE0D-D5D4DDC247EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AB1B64D-27DC-4E28-B2D1-5EA22C939709}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DB8A143-C17D-4B33-8AC5-E69F92F0CA37}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A06E061-A4EF-4E39-B1FB-B109DDA24338}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4FDB7CCE-FAB5-43CA-AFC1-901E378CBB1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C642DD23-84AA-45A1-AC67-CCF5052B3ED1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE156B24-4452-434A-937F-0FBBED3182C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76066246-3A35-4466-AEF7-90833A286742}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BE36DD6B-387E-42D5-A315-985BEA9019BF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4402792E-0F42-4877-B473-0E79E3840714}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{920328F3-C3D0-4D49-B46B-33AF0934EAE1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7922,7 +7922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224F8B0E-02E5-41F2-871B-85207931DF99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632975DD-CE8B-4C52-82A7-AA716A1764F1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9221,17 +9221,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA2A94BE-EE36-4525-8F66-9EDC793C0D0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B2447DC-DEEB-4E36-B8E9-E834606AC4FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{321B4DEF-3178-4975-A657-C6DF49378C6D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63B21563-8FFD-483D-9394-0ED47B3CC84B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5A8D094-0AA9-4D8C-8CDE-E35423F5560C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8B39642-962F-46CA-B0BE-3367A8377B04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C82F55A8-1BA4-4A5A-9A3B-B2C46ADD4D14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{211B8C4A-CEF2-46EA-805D-0FE9F175C369}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BB5428F7-7D22-41C3-89CF-2A94A663E530}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7F3A2533-55BB-478B-90B7-69004C76F37B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FD5FA59-8779-4660-807C-CB36F269E073}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF629D07-7E9A-488F-9FC7-9E7282265E15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0EAFC7C-BDB3-4685-B1A1-2D7E74777EB4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8E05DB3-27B0-4A90-B673-B31642DEE468}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19125508-9F4C-440E-93AB-56F26F69FA40}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{419136AE-E0D0-4854-B12F-2381651548D4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9858669A-04A0-4B9C-AC05-DE4D66E5C81C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{414D2236-0F3F-4197-ACAE-71FE35799256}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5987B3E5-58D4-4AAF-837D-2784193E3CDF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5C6E337D-756A-4899-916E-AD8088BD2B2A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{30839EAA-3AB9-4693-926F-57B486D2F01D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9AB986E-008E-443F-BA6B-BE1BDE4CFB78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9244,7 +9244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8C683D-61C9-4C4B-B0C2-D22FDC15D635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1301D87-BB35-403E-8763-4E539049DEFE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10543,17 +10543,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{946C76FA-D11B-4F99-9C90-30105379C4FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAFB1D87-5046-495A-A796-D0612BB78E5C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9BFA168C-CF98-4EE4-BA6D-8C7F12E457BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{537E3177-83D0-42E1-BC2A-49EDB7984787}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6311AED6-9E8F-4E63-9727-B4B88E1F0CDD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{473905DC-4879-481E-AAB5-02D25F4DF60F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{067C5447-EF30-4B2F-BAA8-02FA688D9249}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA8601FD-0C12-4D4A-BBE0-64277D41D781}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A6398008-9FF1-4BE0-BD0D-2479D3709A75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F4A00F40-AA39-4F97-A693-098B0BD360A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD6C7D93-49B4-46FB-9887-11196F50D890}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{753B702C-95CD-446B-9DA8-F9A61C00C58B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B2A18CC-D187-42A0-B727-5BFBA6152AB5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80E881EA-EE97-4C87-BA15-63821C59905F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4A615827-7D20-451A-87E6-31656E90228F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2041ABEB-64A7-4E44-99DB-A7A0BC13510C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2E03C53-2641-413D-B028-607FFE56FE25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DAF27DD-2F3A-400E-983D-6CAB82F8BFF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26255D21-764E-45D4-B5D0-8942B3F784F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8E2EBBDA-F327-404B-BDB3-094B82C59D09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5EDCC1A6-AB8A-4581-BA87-C23F4B1C487F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{167FD5F9-873B-4888-9190-B4DD3CB14F55}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10566,7 +10566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3B11D5-9446-4D8D-AD27-EEA89BA7297A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A585E1F-87EA-4E99-9257-B62A3C055A05}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11865,17 +11865,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{502C1D19-FCC4-4F17-B295-357882AD79D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC569212-4DD3-4799-AA9D-6225F3E9E5F3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8FE0B4C0-B566-4EAD-9832-499077A99270}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8634B9E9-8219-4198-9D73-848695177648}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B43706FC-4293-4222-B199-DE9595DBA62B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9B31E76-8A84-4A08-A0CE-B67758D26913}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88FDEC18-60FC-4EDC-BBC9-0600BC725515}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A768F089-CC59-4EE4-933D-6B503D2108CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DEC06131-14CC-4C25-994A-742E89F1BFAE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EA951BEE-DDE2-466F-B895-2AF74BFBA4CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{897B4E3C-15BD-4AEA-8353-901DBE824710}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87007D65-0519-4956-8A89-0AC73F4A4FE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE2FE5AC-2A93-4DCA-BF63-BC1182E26B22}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23AE0415-0A9C-47BC-B123-1E12CFE5879E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3AA6437-FC2B-45E5-9F9B-2CD31A762698}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA9A6588-4EC9-4173-B9D2-87E9700F4056}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08798288-4D80-42AD-A5F9-D8E9F4B1D938}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA64FED5-0691-4BD3-AF15-CD7BE5B34002}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{731F1AA0-51A2-4764-8A93-935248319562}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{78CFE46D-AD27-4AE7-9304-304548321FA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{17BE7F9A-8985-4BE1-BAE1-E70977D1ED94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07F689BC-BC10-4CD7-B1AF-2ABA1C813D11}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11888,7 +11888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE575C-9B7A-4787-A339-0A419F995033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A41765-FB6A-46C9-AB64-72DF390B94FF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13187,17 +13187,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC52627B-96E3-4A7C-A050-36F9E7AC52BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCEC13E3-1075-401C-A1FF-295F55C744D0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57696560-D786-432C-891B-94048D89F478}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32A563C5-7212-4116-AABA-17FC0473ABEC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AB6827F-038C-423F-B5E5-3B3E99033329}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C876608B-BC8B-4BD5-B725-F1BDEF436A9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD50FF77-65D3-4461-BBFC-27583FD0BFD6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0A8A293-62E5-4FAE-B209-055973F5071B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FEC97179-BDFC-4111-A0FB-0CD390CFFF32}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C736FC02-EA13-413A-9F10-DF140B22294E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65B8AD89-A7F5-465C-B3EF-53E29E864E5C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8700CDF7-04E1-4B3D-9050-137D596F467B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA0AEC84-2AC4-4F1B-9F1A-E9E79DC9E8A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA2117DA-5AE6-4DC4-9042-CA821C3D8A3E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8D0C5BA-6679-4CE7-B4EE-F676E614D52D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26E5C3B2-BAD0-4A72-BD1A-EBBF7AB6AAA2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB9EC62B-E243-46B8-9F20-8EBD50F97B0C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DDB4137-1E36-4C60-B646-823170EBD50D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A539BD7-4548-4FB6-B09E-3E08FFA2C139}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{91AADEB9-B5FF-4E27-BA85-76DC27964B18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A484527C-D5AC-4A81-B0B8-33CD5A989881}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B73A12A-C74E-4731-BFDC-592B53C66920}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13210,7 +13210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4774D8-6343-477E-AC4E-DBBC68F2A489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0A8129-D974-4C0F-BC42-76D0031F8DFF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14509,17 +14509,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{290D536C-C0DD-4236-95A1-F7B62A2C2FA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A9FDA3B-2448-4544-BA7C-A8EFE516EBB2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6BF58EE9-B696-4BBA-9A61-72E9BF194321}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91CB7247-BC1B-47A0-BAB4-D0257E63B80B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{335C120B-0558-44B5-8512-BE6678A8D86C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43E2A251-3A75-47C8-9097-677EBE0EDA26}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59CE945B-C589-4B0D-9F05-48B375723775}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A81DAC7D-8684-4E67-B781-07D895C53505}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B3C79958-AFFD-4C0E-AE0C-00727BA293C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B244E7A4-EB9B-496F-A4FA-8968DA2BD815}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6F1FC45-DCB6-40EC-9AD4-6AC339D44D65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31A0A213-E65C-4EEB-AEE1-B5E0459B47A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15D3530E-1C9F-4C22-809D-2D6A9D8343A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B4F86DB-EF73-4935-871D-E8315F85B926}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55C6956D-AF62-48AA-8A31-808030AC5B0F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4146A859-783E-4343-B3DF-E7C9D2B12376}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6D2BFA4-B68A-401D-B169-3D9596C6A9E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AEBAFF4-20DF-4DA1-BEDB-64A1ADCFC4E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{744FBE08-8DE3-441D-BB94-02EA7D0C5A8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{00EA860A-CBED-4C4C-A568-D2146BD6DBBD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{732FB462-72A3-412C-8E05-E2462AF59CEE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3733A84E-6259-494F-8F49-BCF01B02B66D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14532,7 +14532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8676FC-5219-47E4-ABC9-91E5C5A4A975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963DE4A4-9976-43C4-AE3A-97D4F171F1A5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15831,17 +15831,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46E705BB-A018-4345-BEA2-1119FF2DD97B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F973C92E-4942-48DC-9B7E-D132410CEF7B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D19FE7A-411D-4AB8-9C6D-C5D5FC8FF1C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F4E6C81-B0D1-449B-8465-769EA81FFADB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{215F2F36-82BA-44DD-9F2A-F98F4AF1FACD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BEA9578D-1621-4AA8-B4BB-5D1145EB3FC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{146576DA-7420-41E2-8BFA-F7510B4A0A23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BCB004F-13E6-4BE5-949E-57A138511811}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{73932DD9-07A6-4C29-9A7B-4B351C8A6C92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D1C8FC25-7842-4997-B049-61E92317CE91}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21536B0C-E6CF-4886-8786-DB3645AF37E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35CD9C01-1E4E-4C12-9CED-898C727EFAC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF2B85D5-286B-416B-94A8-FE12694B57CA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70302C51-5208-4FC1-9815-83DC8300E8AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB2F2101-DAD6-4288-AB37-B0A04167EB8D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92DBA3D7-9224-45C6-ACFF-91EDB71ED1C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BAFE01F-EE12-4489-9671-D7A91FC64A21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4988C028-56D5-4ACA-B3DE-3F6301D89AD0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C669AAF4-458F-4AF6-BDA2-9096CA8370ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D0EC03AD-CE74-4062-8825-12F0D029E706}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{616B1AC1-894D-4BC5-BB50-CD130DD26B8F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EF1C0C9-C13E-4970-998C-2C42E4D9922D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15854,7 +15854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F55FCB4-DADE-4A7D-8999-86283256E509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0350ACA-DA97-43CD-A1CD-16EB95A45791}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17153,17 +17153,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43974B42-F2DD-4B51-B338-3870F4392927}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D707C66-A16F-4EC0-9EC7-DCEBFE3DB5D5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0148E648-8F28-47C2-8011-E7D7A81E0EDE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7EB089F-73F5-4CF7-9675-0B19B253C860}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1757564C-FEE5-4861-961A-7A7E10BC3620}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D126FBB0-45A0-4952-9A7F-3E7BFE35FE38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E158C90F-281C-4FE0-A17B-AB901D7463D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5408D796-5F90-45D9-9495-8637C0F27B73}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{84A93F58-3852-4BEA-ABD2-8126BA8C30D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CCF24735-9D50-4564-A8FE-328982C6CBF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FD9F2A8-69A9-44E9-B5A4-892E8F726CB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BED5479-162A-4F70-B069-E066E02B48A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AE5CE78-C3F5-4E79-ADA8-2FC9F1662C18}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{843765D2-880F-400F-8FF2-216B029C9F62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7AA9D180-F23D-4EFA-8301-C15FF68D66A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB369E07-4BAA-487D-811B-FAD47F38B208}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{463F4C69-FA2B-47D6-83DD-C8119F6EDF4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16E2E5DF-2FFA-4F8D-9051-77D6C03CA065}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EF33988-8479-4CE5-BBA8-67191B8D1914}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C320CA70-C607-460A-84A4-B8BCAF362016}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{114C3EF8-A78E-4066-9393-16DBC0CD1594}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{965E419F-0294-4334-86B9-783A5F15E81B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
